--- a/Projekti gantt-kaavio.xlsx
+++ b/Projekti gantt-kaavio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samppa\Desktop\Projekti -kurssi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414DD4BD-E4EB-4386-A506-583ABB8A337E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3A86B9-9549-42DA-9C9A-5900D4FE3579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="1635" windowWidth="21765" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="1080" windowWidth="21765" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,6 +220,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -229,12 +235,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -518,7 +518,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,44 +527,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="1">
-        <v>21.4</v>
+        <v>20.2</v>
       </c>
       <c r="C3" s="1">
-        <v>28.4</v>
+        <v>27.2</v>
       </c>
       <c r="D3" s="1">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="E3" s="1">
-        <v>12.5</v>
+        <v>6.3</v>
       </c>
       <c r="F3" s="2">
-        <v>19.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="1"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
@@ -574,8 +574,8 @@
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
@@ -585,8 +585,8 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -595,8 +595,8 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="14"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="16"/>
+      <c r="F8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
